--- a/SampleExcelFiles/GenericTypeSampleMetadata.xlsx
+++ b/SampleExcelFiles/GenericTypeSampleMetadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Projects/GitHub/UniSharper.Data.Metadata/SampleExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/External/Projects/GitHub/UniSharper.Data.Metadata/SampleExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDE241A-5DC6-4149-8628-C99343ED0D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC5AFF-7278-A346-84D1-FD52197B7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>long</t>
   </si>
@@ -424,6 +424,14 @@
   </si>
   <si>
     <t>Decimal Array Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignored Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,47 +901,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="28" style="3" customWidth="1"/>
-    <col min="16" max="16" width="30.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="22.83203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="23" style="3" customWidth="1"/>
-    <col min="20" max="20" width="24.5" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="25.5" style="3" customWidth="1"/>
-    <col min="23" max="23" width="26" style="3" customWidth="1"/>
-    <col min="24" max="24" width="22.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="24.6640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="24.83203125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="44.83203125" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="20.6640625" style="3"/>
+    <col min="3" max="4" width="24.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="21" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18" style="3" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="28" style="3" customWidth="1"/>
+    <col min="17" max="17" width="30.5" style="3" customWidth="1"/>
+    <col min="18" max="18" width="27.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="23" style="3" customWidth="1"/>
+    <col min="21" max="21" width="24.5" style="3" customWidth="1"/>
+    <col min="22" max="22" width="25.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="25.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="26" style="3" customWidth="1"/>
+    <col min="25" max="25" width="22.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="24.83203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="44.83203125" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="20.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1">
+    <row r="1" spans="1:29" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -943,83 +951,84 @@
       <c r="C1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" customHeight="1">
+    <row r="2" spans="1:29" ht="30" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1029,83 +1038,84 @@
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="30" customHeight="1">
+    <row r="3" spans="1:29" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1116,82 +1126,85 @@
         <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="Y3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AB3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AC3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1">
+    <row r="4" spans="1:29" ht="30" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1202,78 +1215,81 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>-32768</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>2147483647</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="K4" s="6">
         <v>-922337203685477</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>922337203685477</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>3.4548214832139799</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>10.0214510024561</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="6">
         <v>9.9999999999999908E+27</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AB4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AC4" s="5" t="s">
         <v>72</v>
       </c>
     </row>
